--- a/static/plantillas/armamento_plantilla.xlsx
+++ b/static/plantillas/armamento_plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SERVER\static\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77EB41-246A-4C04-9179-62AB386DEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21D988-9881-4A56-BA9B-D0BE2FECC612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="3870" windowWidth="24375" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUALIZACIONES" sheetId="5" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Institución</t>
   </si>
@@ -168,9 +168,6 @@
     <t>CUIP del elemento que la porta</t>
   </si>
   <si>
-    <t>CUIP del elemento Responsable del cargo</t>
-  </si>
-  <si>
     <t>Código de Identificación de Huella Balística (CIHB)</t>
   </si>
   <si>
@@ -181,6 +178,24 @@
   </si>
   <si>
     <t>Propiedad</t>
+  </si>
+  <si>
+    <t>Fecha de baja logica</t>
+  </si>
+  <si>
+    <t>Motivo de baja</t>
+  </si>
+  <si>
+    <t>Documento de baja</t>
+  </si>
+  <si>
+    <t>Observaciones de baja</t>
+  </si>
+  <si>
+    <t>Fecha de baja del documento</t>
+  </si>
+  <si>
+    <t>CUIP del elemento responsable del cargo</t>
   </si>
 </sst>
 </file>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,11 +668,12 @@
     <col min="22" max="22" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" style="1" customWidth="1"/>
     <col min="24" max="25" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="77.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="77.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -720,19 +736,34 @@
         <v>19</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="X1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -758,8 +789,13 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -785,8 +821,13 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -812,8 +853,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -839,8 +885,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -866,8 +917,13 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -893,8 +949,13 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -920,8 +981,13 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -947,8 +1013,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -974,8 +1045,13 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1001,8 +1077,13 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1028,8 +1109,13 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1055,8 +1141,13 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1082,8 +1173,13 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1109,8 +1205,13 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1136,8 +1237,13 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1163,8 +1269,13 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1190,8 +1301,13 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1217,8 +1333,13 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1244,8 +1365,13 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1271,8 +1397,13 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1298,8 +1429,13 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1325,8 +1461,13 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1352,8 +1493,13 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1379,8 +1525,13 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1406,8 +1557,13 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1433,8 +1589,13 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1460,8 +1621,13 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1487,8 +1653,13 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1514,8 +1685,13 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1541,8 +1717,13 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -1555,851 +1736,71 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="Q33"/>
-      <c r="S33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="8:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="Q34"/>
-      <c r="S34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="Q35"/>
-      <c r="S35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-    </row>
-    <row r="36" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="Q36"/>
-      <c r="S36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-    </row>
-    <row r="37" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="Q37"/>
-      <c r="S37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="Q38"/>
-      <c r="S38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-    </row>
-    <row r="39" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="Q39"/>
-      <c r="S39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="Q40"/>
-      <c r="S40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-    </row>
-    <row r="41" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="Q41"/>
-      <c r="S41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-    </row>
-    <row r="42" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="Q42"/>
-      <c r="S42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-    </row>
-    <row r="43" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="Q43"/>
-      <c r="S43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-    </row>
-    <row r="44" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="Q44"/>
-      <c r="S44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-    </row>
-    <row r="45" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="Q45"/>
-      <c r="S45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-    </row>
-    <row r="46" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="Q46"/>
-      <c r="S46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-    </row>
-    <row r="47" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="Q47"/>
-      <c r="S47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-    </row>
-    <row r="48" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="Q48"/>
-      <c r="S48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-    </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="Q49"/>
-      <c r="S49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-    </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="Q50"/>
-      <c r="S50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-    </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="Q51"/>
-      <c r="S51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-    </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="Q52"/>
-      <c r="S52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-    </row>
-    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="Q53"/>
-      <c r="S53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-    </row>
-    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="Q54"/>
-      <c r="S54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-    </row>
-    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="Q55"/>
-      <c r="S55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-    </row>
-    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="Q56"/>
-      <c r="S56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-    </row>
-    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="Q57"/>
-      <c r="S57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-    </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="Q58"/>
-      <c r="S58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-    </row>
-    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="Q59"/>
-      <c r="S59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-    </row>
-    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="Q60"/>
-      <c r="S60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-    </row>
-    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="Q61"/>
-      <c r="S61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-    </row>
-    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="Q62"/>
-      <c r="S62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-    </row>
-    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="Q63"/>
-      <c r="S63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-    </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="Q64"/>
-      <c r="S64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-    </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="Q65"/>
-      <c r="S65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-    </row>
-    <row r="66" spans="8:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="Q66"/>
-      <c r="S66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-    </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="Q67"/>
-      <c r="S67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-    </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="Q68"/>
-      <c r="S68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="Q69"/>
-      <c r="S69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="Q70"/>
-      <c r="S70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-    </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="Q71"/>
-      <c r="S71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-    </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="Q72"/>
-      <c r="S72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-    </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="Q73"/>
-      <c r="S73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-    </row>
-    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="Q74"/>
-      <c r="S74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-    </row>
-    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="Q75"/>
-      <c r="S75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-    </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="Q76"/>
-      <c r="S76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-    </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="Q77"/>
-      <c r="S77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="Q78"/>
-      <c r="S78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-    </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="Q79"/>
-      <c r="S79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-    </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="Q80"/>
-      <c r="S80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="Q81"/>
-      <c r="S81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="Q82"/>
-      <c r="S82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="Q83"/>
-      <c r="S83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-    </row>
-    <row r="84" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="Q84"/>
-      <c r="S84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-    </row>
-    <row r="85" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="Q85"/>
-      <c r="S85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-    </row>
-    <row r="86" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="Q86"/>
-      <c r="S86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-    </row>
-    <row r="87" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="Q87"/>
-      <c r="S87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-    </row>
-    <row r="88" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="Q88"/>
-      <c r="S88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-    </row>
-    <row r="89" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="Q89"/>
-      <c r="S89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-    </row>
-    <row r="90" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="Q90"/>
-      <c r="S90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-    </row>
-    <row r="91" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="Q91"/>
-      <c r="S91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-    </row>
-    <row r="92" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="Q92"/>
-      <c r="S92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-    </row>
-    <row r="93" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="Q93"/>
-      <c r="S93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-    </row>
-    <row r="94" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="Q94"/>
-      <c r="S94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-    </row>
-    <row r="95" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-      <c r="Q95"/>
-      <c r="S95"/>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-    </row>
-    <row r="96" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="Q96"/>
-      <c r="S96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-    </row>
-    <row r="97" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="Q97"/>
-      <c r="S97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
